--- a/biology/Médecine/Métabiose/Métabiose.xlsx
+++ b/biology/Médecine/Métabiose/Métabiose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tabiose</t>
+          <t>Métabiose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La métabiose est la succession d'organismes sur un même substrat (le plus souvent de colonies de micro-organismes bactérien ou fongique) ; les premiers préparent le « terrain » pour les suivants, puis stoppent leur multiplication et enfin disparaissent.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tabiose</t>
+          <t>Métabiose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description du phénomène</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La métabiose est un phénomène où un substrat (ou la surface d'un substrat) est transformé par organisme (micro-organisme en général, dans un biofilm par exemple). 
 Cette transformation laisse un produit qui permet à un autre microorganisme, puis un autre.. d'y prospérer à son tour modifiant le milieu en un nouveau substrat. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9tabiose</t>
+          <t>Métabiose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +561,15 @@
           <t>Quelques exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La métabiose intervient par exemple dans la formation de :
-fromages au lait cru (ou non d'ailleurs). « les flores bactériennes peuvent se succéder, c’est ce que l’on nomme la métabiose et celui est exploité lors de la fabrication de certains fromages » [1]
+fromages au lait cru (ou non d'ailleurs). « les flores bactériennes peuvent se succéder, c’est ce que l’on nomme la métabiose et celui est exploité lors de la fabrication de certains fromages » 
 saucissons
 choucroute
-vins  [1], des vins blancs provenant des vendanges précoces par double métabiose [2]
+vins  , des vins blancs provenant des vendanges précoces par double métabiose 
 L'usage d'épice a souvent été évoqué comme une des clés de la maîtrise du risque microbien dans l'alimentation.
 </t>
         </is>
